--- a/Словарь данных.xlsx
+++ b/Словарь данных.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Винда\Рабочий стол\Praktika 3 week\Praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C83C46-FD45-432E-9A7F-14D0C375B3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8783921-2DE6-47B2-886C-002E6583A1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{2B574DAA-772D-4B47-A0BD-54E0C843ADF9}"/>
+    <workbookView xWindow="-26310" yWindow="960" windowWidth="24855" windowHeight="11295" xr2:uid="{2B574DAA-772D-4B47-A0BD-54E0C843ADF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>Идентификатор детали для ремонта</t>
   </si>
   <si>
-    <t>Словарь данных</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>UserTypes</t>
+  </si>
+  <si>
+    <t>Словарь данных базы данных RepairServiceDB</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71661982-1272-4D9A-98AC-6DBD7D684029}">
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>54</v>
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>43</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -1213,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>61</v>
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>62</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -1408,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>51</v>
@@ -1484,7 +1484,7 @@
         <v>19</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>51</v>
@@ -1585,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>51</v>
